--- a/brasileirao2.xlsx
+++ b/brasileirao2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qualidade031\OneDrive - CMCorp Soluções em Informática S.A\Documentos\MeuGitHub\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="brasileirao" sheetId="1" r:id="rId1"/>
@@ -12,51 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">brasileirao!$A$1:$M$411</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="63">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>victories</t>
-  </si>
-  <si>
-    <t>draws</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>goals_scored</t>
-  </si>
-  <si>
-    <t>goals_against</t>
-  </si>
-  <si>
-    <t>goals_difference</t>
-  </si>
-  <si>
-    <t>total_points</t>
-  </si>
-  <si>
-    <t>percentage_win</t>
-  </si>
   <si>
     <t>Cruzeiro</t>
   </si>
@@ -207,18 +173,51 @@
   <si>
     <t>Red Bull Bragantino</t>
   </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>posicao</t>
+  </si>
+  <si>
+    <t>equipe</t>
+  </si>
+  <si>
+    <t>pontos</t>
+  </si>
+  <si>
+    <t>jogos</t>
+  </si>
+  <si>
+    <t>vitorias</t>
+  </si>
+  <si>
+    <t>empates</t>
+  </si>
+  <si>
+    <t>derrotas</t>
+  </si>
+  <si>
+    <t>gols_marcados</t>
+  </si>
+  <si>
+    <t>gols_sofridos</t>
+  </si>
+  <si>
+    <t>saldo_de_gols</t>
+  </si>
+  <si>
+    <t>total_de_pontos</t>
+  </si>
+  <si>
+    <t>aproveitamento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,346 +225,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -573,251 +242,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,61 +253,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1138,63 +521,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="11.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1205,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1237,7 +620,7 @@
       </c>
       <c r="M2">
         <f>ROUND((D2/L2)*100,2)</f>
-        <v>72.46</v>
+        <v>72.459999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1248,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>87</v>
@@ -1291,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>78</v>
@@ -1334,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>74</v>
@@ -1377,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>73</v>
@@ -1420,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>72</v>
@@ -1463,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>72</v>
@@ -1506,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>66</v>
@@ -1549,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>65</v>
@@ -1592,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>65</v>
@@ -1635,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>65</v>
@@ -1678,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>61</v>
@@ -1721,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>61</v>
@@ -1764,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -1807,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>59</v>
@@ -1850,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>56</v>
@@ -1893,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>54</v>
@@ -1925,7 +1308,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1936,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>53</v>
@@ -1968,7 +1351,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>38.41</v>
+        <v>38.409999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1979,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>52</v>
@@ -2022,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>50</v>
@@ -2054,7 +1437,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>36.23</v>
+        <v>36.229999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2065,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -2097,7 +1480,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>36.23</v>
+        <v>36.229999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2108,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>49</v>
@@ -2151,7 +1534,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>49</v>
@@ -2194,7 +1577,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>46</v>
@@ -2237,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>89</v>
@@ -2269,7 +1652,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>64.49</v>
+        <v>64.489999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2280,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>86</v>
@@ -2323,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>82</v>
@@ -2366,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>79</v>
@@ -2409,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>74</v>
@@ -2452,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>72</v>
@@ -2495,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>70</v>
@@ -2538,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>67</v>
@@ -2581,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>67</v>
@@ -2624,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>64</v>
@@ -2667,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>63</v>
@@ -2710,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>62</v>
@@ -2753,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>56</v>
@@ -2796,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>56</v>
@@ -2839,7 +2222,7 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>54</v>
@@ -2871,7 +2254,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2882,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>54</v>
@@ -2914,7 +2297,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2925,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>54</v>
@@ -2957,7 +2340,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>39.13</v>
+        <v>39.130000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2968,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>53</v>
@@ -3000,7 +2383,7 @@
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
-        <v>38.41</v>
+        <v>38.409999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3011,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>53</v>
@@ -3043,7 +2426,7 @@
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
-        <v>38.41</v>
+        <v>38.409999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3054,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>51</v>
@@ -3097,7 +2480,7 @@
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -3129,7 +2512,7 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>36.23</v>
+        <v>36.229999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3140,7 +2523,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>49</v>
@@ -3183,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>48</v>
@@ -3226,7 +2609,7 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>39</v>
@@ -3269,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>81</v>
@@ -3301,7 +2684,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>64.29</v>
+        <v>64.290000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3312,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>78</v>
@@ -3355,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>74</v>
@@ -3398,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>70</v>
@@ -3441,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>68</v>
@@ -3484,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>61</v>
@@ -3527,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>61</v>
@@ -3570,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>60</v>
@@ -3613,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <v>59</v>
@@ -3656,7 +3039,7 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>59</v>
@@ -3699,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -3742,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>56</v>
@@ -3785,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D62">
         <v>55</v>
@@ -3828,7 +3211,7 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>55</v>
@@ -3871,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>55</v>
@@ -3914,7 +3297,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>53</v>
@@ -3957,7 +3340,7 @@
         <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>52</v>
@@ -4000,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>51</v>
@@ -4032,7 +3415,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M130" si="3">ROUND((D67/L67)*100,2)</f>
-        <v>40.48</v>
+        <v>40.479999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4043,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>49</v>
@@ -4086,7 +3469,7 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>47</v>
@@ -4118,7 +3501,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="3"/>
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4129,7 +3512,7 @@
         <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D70">
         <v>41</v>
@@ -4172,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>41</v>
@@ -4215,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>78</v>
@@ -4258,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>69</v>
@@ -4301,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>67</v>
@@ -4344,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>64</v>
@@ -4387,7 +3770,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>60</v>
@@ -4430,7 +3813,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>59</v>
@@ -4473,7 +3856,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>57</v>
@@ -4516,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>55</v>
@@ -4559,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D80">
         <v>53</v>
@@ -4602,7 +3985,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>53</v>
@@ -4645,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D82">
         <v>52</v>
@@ -4688,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D83">
         <v>51</v>
@@ -4731,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>48</v>
@@ -4774,7 +4157,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <v>47</v>
@@ -4817,7 +4200,7 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <v>45</v>
@@ -4860,7 +4243,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D87">
         <v>44</v>
@@ -4903,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>39</v>
@@ -4946,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D89">
         <v>38</v>
@@ -4989,7 +4372,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>36</v>
@@ -5032,7 +4415,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D91">
         <v>28</v>
@@ -5075,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>77</v>
@@ -5107,7 +4490,7 @@
       </c>
       <c r="M92">
         <f t="shared" si="3"/>
-        <v>67.54</v>
+        <v>67.540000000000006</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5118,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>62</v>
@@ -5161,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D94">
         <v>61</v>
@@ -5204,7 +4587,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>61</v>
@@ -5247,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -5290,7 +4673,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <v>58</v>
@@ -5333,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D98">
         <v>58</v>
@@ -5376,7 +4759,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>55</v>
@@ -5419,7 +4802,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D100">
         <v>55</v>
@@ -5462,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>54</v>
@@ -5505,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>54</v>
@@ -5548,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>54</v>
@@ -5591,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>53</v>
@@ -5634,7 +5017,7 @@
         <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D105">
         <v>51</v>
@@ -5677,7 +5060,7 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D106">
         <v>49</v>
@@ -5720,7 +5103,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D107">
         <v>45</v>
@@ -5763,7 +5146,7 @@
         <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>44</v>
@@ -5806,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D109">
         <v>41</v>
@@ -5849,7 +5232,7 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>41</v>
@@ -5892,7 +5275,7 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D111">
         <v>17</v>
@@ -5935,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>75</v>
@@ -5967,7 +5350,7 @@
       </c>
       <c r="M112">
         <f t="shared" si="3"/>
-        <v>65.79</v>
+        <v>65.790000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5978,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>72</v>
@@ -6021,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>67</v>
@@ -6064,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D115">
         <v>65</v>
@@ -6107,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D116">
         <v>64</v>
@@ -6150,7 +5533,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>54</v>
@@ -6193,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D118">
         <v>53</v>
@@ -6236,7 +5619,7 @@
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D119">
         <v>53</v>
@@ -6279,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>53</v>
@@ -6322,7 +5705,7 @@
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D121">
         <v>52</v>
@@ -6365,7 +5748,7 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D122">
         <v>52</v>
@@ -6408,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D123">
         <v>48</v>
@@ -6451,7 +5834,7 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D124">
         <v>45</v>
@@ -6494,7 +5877,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D125">
         <v>45</v>
@@ -6537,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>45</v>
@@ -6580,7 +5963,7 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D127">
         <v>44</v>
@@ -6623,7 +6006,7 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>44</v>
@@ -6666,7 +6049,7 @@
         <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D129">
         <v>40</v>
@@ -6698,7 +6081,7 @@
       </c>
       <c r="M129">
         <f t="shared" si="3"/>
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6709,7 +6092,7 @@
         <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D130">
         <v>38</v>
@@ -6752,7 +6135,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D131">
         <v>35</v>
@@ -6795,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D132">
         <v>67</v>
@@ -6838,7 +6221,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D133">
         <v>65</v>
@@ -6881,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>65</v>
@@ -6924,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>62</v>
@@ -6967,7 +6350,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D136">
         <v>62</v>
@@ -7010,7 +6393,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D137">
         <v>57</v>
@@ -7053,7 +6436,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>56</v>
@@ -7096,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D139">
         <v>55</v>
@@ -7139,7 +6522,7 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D140">
         <v>55</v>
@@ -7182,7 +6565,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D141">
         <v>52</v>
@@ -7225,7 +6608,7 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D142">
         <v>49</v>
@@ -7268,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>49</v>
@@ -7311,7 +6694,7 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D144">
         <v>48</v>
@@ -7354,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D145">
         <v>48</v>
@@ -7397,7 +6780,7 @@
         <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D146">
         <v>47</v>
@@ -7440,7 +6823,7 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D147">
         <v>46</v>
@@ -7483,7 +6866,7 @@
         <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D148">
         <v>45</v>
@@ -7526,7 +6909,7 @@
         <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D149">
         <v>41</v>
@@ -7569,7 +6952,7 @@
         <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D150">
         <v>38</v>
@@ -7612,7 +6995,7 @@
         <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D151">
         <v>31</v>
@@ -7655,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <v>71</v>
@@ -7698,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>69</v>
@@ -7741,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D154">
         <v>68</v>
@@ -7784,7 +7167,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D155">
         <v>63</v>
@@ -7827,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D156">
         <v>60</v>
@@ -7870,7 +7253,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D157">
         <v>59</v>
@@ -7913,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D158">
         <v>58</v>
@@ -7956,7 +7339,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>56</v>
@@ -7999,7 +7382,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>55</v>
@@ -8042,7 +7425,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D161">
         <v>50</v>
@@ -8085,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D162">
         <v>49</v>
@@ -8128,7 +7511,7 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D163">
         <v>47</v>
@@ -8171,7 +7554,7 @@
         <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <v>45</v>
@@ -8214,7 +7597,7 @@
         <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D165">
         <v>44</v>
@@ -8257,7 +7640,7 @@
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D166">
         <v>43</v>
@@ -8300,7 +7683,7 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D167">
         <v>42</v>
@@ -8332,7 +7715,7 @@
       </c>
       <c r="M167">
         <f t="shared" si="5"/>
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -8343,7 +7726,7 @@
         <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>42</v>
@@ -8375,7 +7758,7 @@
       </c>
       <c r="M168">
         <f t="shared" si="5"/>
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8386,7 +7769,7 @@
         <v>18</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D169">
         <v>37</v>
@@ -8429,7 +7812,7 @@
         <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D170">
         <v>33</v>
@@ -8472,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D171">
         <v>28</v>
@@ -8515,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D172">
         <v>71</v>
@@ -8558,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D173">
         <v>69</v>
@@ -8601,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D174">
         <v>63</v>
@@ -8644,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D175">
         <v>61</v>
@@ -8687,7 +8070,7 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>60</v>
@@ -8730,7 +8113,7 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>59</v>
@@ -8773,7 +8156,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D178">
         <v>58</v>
@@ -8816,7 +8199,7 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D179">
         <v>57</v>
@@ -8859,7 +8242,7 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D180">
         <v>56</v>
@@ -8902,7 +8285,7 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>53</v>
@@ -8945,7 +8328,7 @@
         <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D182">
         <v>50</v>
@@ -8988,7 +8371,7 @@
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D183">
         <v>48</v>
@@ -9031,7 +8414,7 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D184">
         <v>48</v>
@@ -9074,7 +8457,7 @@
         <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D185">
         <v>46</v>
@@ -9117,7 +8500,7 @@
         <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D186">
         <v>45</v>
@@ -9160,7 +8543,7 @@
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>43</v>
@@ -9203,7 +8586,7 @@
         <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D188">
         <v>41</v>
@@ -9246,7 +8629,7 @@
         <v>18</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D189">
         <v>39</v>
@@ -9289,7 +8672,7 @@
         <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D190">
         <v>37</v>
@@ -9332,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D191">
         <v>31</v>
@@ -9375,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D192">
         <v>77</v>
@@ -9407,7 +8790,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="5"/>
-        <v>67.54</v>
+        <v>67.540000000000006</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -9418,7 +8801,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D193">
         <v>72</v>
@@ -9461,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D194">
         <v>71</v>
@@ -9504,7 +8887,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>66</v>
@@ -9547,7 +8930,7 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D196">
         <v>58</v>
@@ -9590,7 +8973,7 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D197">
         <v>57</v>
@@ -9633,7 +9016,7 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D198">
         <v>55</v>
@@ -9676,7 +9059,7 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>53</v>
@@ -9719,7 +9102,7 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>52</v>
@@ -9762,7 +9145,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>52</v>
@@ -9805,7 +9188,7 @@
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D202">
         <v>50</v>
@@ -9848,7 +9231,7 @@
         <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D203">
         <v>49</v>
@@ -9891,7 +9274,7 @@
         <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D204">
         <v>48</v>
@@ -9934,7 +9317,7 @@
         <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D205">
         <v>48</v>
@@ -9977,7 +9360,7 @@
         <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D206">
         <v>47</v>
@@ -10020,7 +9403,7 @@
         <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D207">
         <v>45</v>
@@ -10063,7 +9446,7 @@
         <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D208">
         <v>41</v>
@@ -10106,7 +9489,7 @@
         <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D209">
         <v>34</v>
@@ -10149,7 +9532,7 @@
         <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D210">
         <v>30</v>
@@ -10192,7 +9575,7 @@
         <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>30</v>
@@ -10235,7 +9618,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>76</v>
@@ -10278,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D213">
         <v>65</v>
@@ -10321,7 +9704,7 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D214">
         <v>64</v>
@@ -10364,7 +9747,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D215">
         <v>61</v>
@@ -10407,7 +9790,7 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D216">
         <v>59</v>
@@ -10450,7 +9833,7 @@
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D217">
         <v>59</v>
@@ -10493,7 +9876,7 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>57</v>
@@ -10536,7 +9919,7 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D219">
         <v>57</v>
@@ -10579,7 +9962,7 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D220">
         <v>50</v>
@@ -10622,7 +10005,7 @@
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D221">
         <v>50</v>
@@ -10665,7 +10048,7 @@
         <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D222">
         <v>48</v>
@@ -10708,7 +10091,7 @@
         <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D223">
         <v>48</v>
@@ -10751,7 +10134,7 @@
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D224">
         <v>48</v>
@@ -10794,7 +10177,7 @@
         <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>46</v>
@@ -10837,7 +10220,7 @@
         <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D226">
         <v>46</v>
@@ -10880,7 +10263,7 @@
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D227">
         <v>45</v>
@@ -10923,7 +10306,7 @@
         <v>17</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D228">
         <v>44</v>
@@ -10966,7 +10349,7 @@
         <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D229">
         <v>44</v>
@@ -11009,7 +10392,7 @@
         <v>19</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D230">
         <v>37</v>
@@ -11052,7 +10435,7 @@
         <v>20</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D231">
         <v>20</v>
@@ -11095,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D232">
         <v>80</v>
@@ -11127,7 +10510,7 @@
       </c>
       <c r="M232">
         <f t="shared" si="7"/>
-        <v>70.18</v>
+        <v>70.180000000000007</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -11138,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D233">
         <v>70</v>
@@ -11181,7 +10564,7 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D234">
         <v>69</v>
@@ -11224,7 +10607,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D235">
         <v>69</v>
@@ -11267,7 +10650,7 @@
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D236">
         <v>62</v>
@@ -11310,7 +10693,7 @@
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D237">
         <v>61</v>
@@ -11353,7 +10736,7 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D238">
         <v>61</v>
@@ -11396,7 +10779,7 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D239">
         <v>54</v>
@@ -11439,7 +10822,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D240">
         <v>53</v>
@@ -11482,7 +10865,7 @@
         <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D241">
         <v>52</v>
@@ -11525,7 +10908,7 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D242">
         <v>52</v>
@@ -11568,7 +10951,7 @@
         <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D243">
         <v>47</v>
@@ -11611,7 +10994,7 @@
         <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D244">
         <v>47</v>
@@ -11654,7 +11037,7 @@
         <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D245">
         <v>47</v>
@@ -11697,7 +11080,7 @@
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D246">
         <v>43</v>
@@ -11740,7 +11123,7 @@
         <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D247">
         <v>40</v>
@@ -11772,7 +11155,7 @@
       </c>
       <c r="M247">
         <f t="shared" si="7"/>
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -11783,7 +11166,7 @@
         <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D248">
         <v>38</v>
@@ -11826,7 +11209,7 @@
         <v>18</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D249">
         <v>37</v>
@@ -11869,7 +11252,7 @@
         <v>19</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D250">
         <v>34</v>
@@ -11912,7 +11295,7 @@
         <v>20</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D251">
         <v>32</v>
@@ -11955,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D252">
         <v>81</v>
@@ -11998,7 +11381,7 @@
         <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D253">
         <v>69</v>
@@ -12041,7 +11424,7 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D254">
         <v>68</v>
@@ -12084,7 +11467,7 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D255">
         <v>62</v>
@@ -12127,7 +11510,7 @@
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D256">
         <v>60</v>
@@ -12170,7 +11553,7 @@
         <v>6</v>
       </c>
       <c r="C257" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D257">
         <v>59</v>
@@ -12213,7 +11596,7 @@
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D258">
         <v>58</v>
@@ -12256,7 +11639,7 @@
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D259">
         <v>55</v>
@@ -12299,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D260">
         <v>53</v>
@@ -12342,7 +11725,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D261">
         <v>51</v>
@@ -12385,7 +11768,7 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D262">
         <v>51</v>
@@ -12428,7 +11811,7 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D263">
         <v>49</v>
@@ -12471,7 +11854,7 @@
         <v>13</v>
       </c>
       <c r="C264" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D264">
         <v>47</v>
@@ -12514,7 +11897,7 @@
         <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D265">
         <v>47</v>
@@ -12557,7 +11940,7 @@
         <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D266">
         <v>44</v>
@@ -12600,7 +11983,7 @@
         <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D267">
         <v>43</v>
@@ -12643,7 +12026,7 @@
         <v>17</v>
       </c>
       <c r="C268" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D268">
         <v>42</v>
@@ -12675,7 +12058,7 @@
       </c>
       <c r="M268">
         <f t="shared" si="9"/>
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -12686,7 +12069,7 @@
         <v>18</v>
       </c>
       <c r="C269" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D269">
         <v>41</v>
@@ -12729,7 +12112,7 @@
         <v>19</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D270">
         <v>38</v>
@@ -12772,7 +12155,7 @@
         <v>20</v>
       </c>
       <c r="C271" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D271">
         <v>31</v>
@@ -12815,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D272">
         <v>80</v>
@@ -12847,7 +12230,7 @@
       </c>
       <c r="M272">
         <f t="shared" si="9"/>
-        <v>70.18</v>
+        <v>70.180000000000007</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -12858,7 +12241,7 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D273">
         <v>71</v>
@@ -12901,7 +12284,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D274">
         <v>71</v>
@@ -12944,7 +12327,7 @@
         <v>4</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D275">
         <v>62</v>
@@ -12987,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D276">
         <v>59</v>
@@ -13030,7 +12413,7 @@
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D277">
         <v>57</v>
@@ -13073,7 +12456,7 @@
         <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D278">
         <v>55</v>
@@ -13116,7 +12499,7 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D279">
         <v>53</v>
@@ -13159,7 +12542,7 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D280">
         <v>53</v>
@@ -13202,7 +12585,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D281">
         <v>52</v>
@@ -13245,7 +12628,7 @@
         <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D282">
         <v>52</v>
@@ -13288,7 +12671,7 @@
         <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>51</v>
@@ -13331,7 +12714,7 @@
         <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D284">
         <v>50</v>
@@ -13374,7 +12757,7 @@
         <v>14</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D285">
         <v>47</v>
@@ -13417,7 +12800,7 @@
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D286">
         <v>46</v>
@@ -13460,7 +12843,7 @@
         <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D287">
         <v>45</v>
@@ -13503,7 +12886,7 @@
         <v>17</v>
       </c>
       <c r="C288" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D288">
         <v>43</v>
@@ -13546,7 +12929,7 @@
         <v>18</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D289">
         <v>37</v>
@@ -13589,7 +12972,7 @@
         <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D290">
         <v>28</v>
@@ -13632,7 +13015,7 @@
         <v>20</v>
       </c>
       <c r="C291" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D291">
         <v>28</v>
@@ -13675,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D292">
         <v>72</v>
@@ -13718,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D293">
         <v>63</v>
@@ -13761,7 +13144,7 @@
         <v>3</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D294">
         <v>63</v>
@@ -13804,7 +13187,7 @@
         <v>4</v>
       </c>
       <c r="C295" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D295">
         <v>62</v>
@@ -13847,7 +13230,7 @@
         <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D296">
         <v>57</v>
@@ -13890,7 +13273,7 @@
         <v>6</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D297">
         <v>56</v>
@@ -13933,7 +13316,7 @@
         <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D298">
         <v>56</v>
@@ -13976,7 +13359,7 @@
         <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D299">
         <v>54</v>
@@ -14019,7 +13402,7 @@
         <v>9</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D300">
         <v>54</v>
@@ -14062,7 +13445,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D301">
         <v>53</v>
@@ -14105,7 +13488,7 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D302">
         <v>51</v>
@@ -14148,7 +13531,7 @@
         <v>12</v>
       </c>
       <c r="C303" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D303">
         <v>50</v>
@@ -14191,7 +13574,7 @@
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D304">
         <v>50</v>
@@ -14234,7 +13617,7 @@
         <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D305">
         <v>47</v>
@@ -14277,7 +13660,7 @@
         <v>15</v>
       </c>
       <c r="C306" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D306">
         <v>45</v>
@@ -14320,7 +13703,7 @@
         <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D307">
         <v>43</v>
@@ -14363,7 +13746,7 @@
         <v>17</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D308">
         <v>43</v>
@@ -14406,7 +13789,7 @@
         <v>18</v>
       </c>
       <c r="C309" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D309">
         <v>43</v>
@@ -14449,7 +13832,7 @@
         <v>19</v>
       </c>
       <c r="C310" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D310">
         <v>39</v>
@@ -14492,7 +13875,7 @@
         <v>20</v>
       </c>
       <c r="C311" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D311">
         <v>36</v>
@@ -14535,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D312">
         <v>80</v>
@@ -14567,7 +13950,7 @@
       </c>
       <c r="M312">
         <f t="shared" si="9"/>
-        <v>70.18</v>
+        <v>70.180000000000007</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -14578,7 +13961,7 @@
         <v>2</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D313">
         <v>72</v>
@@ -14621,7 +14004,7 @@
         <v>3</v>
       </c>
       <c r="C314" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D314">
         <v>69</v>
@@ -14664,7 +14047,7 @@
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D315">
         <v>66</v>
@@ -14707,7 +14090,7 @@
         <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D316">
         <v>63</v>
@@ -14750,7 +14133,7 @@
         <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D317">
         <v>59</v>
@@ -14793,7 +14176,7 @@
         <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D318">
         <v>57</v>
@@ -14836,7 +14219,7 @@
         <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D319">
         <v>53</v>
@@ -14879,7 +14262,7 @@
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D320">
         <v>51</v>
@@ -14922,7 +14305,7 @@
         <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D321">
         <v>50</v>
@@ -14965,7 +14348,7 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D322">
         <v>48</v>
@@ -15008,7 +14391,7 @@
         <v>12</v>
       </c>
       <c r="C323" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D323">
         <v>45</v>
@@ -15051,7 +14434,7 @@
         <v>13</v>
       </c>
       <c r="C324" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D324">
         <v>44</v>
@@ -15094,7 +14477,7 @@
         <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D325">
         <v>44</v>
@@ -15137,7 +14520,7 @@
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D326">
         <v>44</v>
@@ -15180,7 +14563,7 @@
         <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D327">
         <v>43</v>
@@ -15223,7 +14606,7 @@
         <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D328">
         <v>40</v>
@@ -15255,7 +14638,7 @@
       </c>
       <c r="M328">
         <f t="shared" si="11"/>
-        <v>35.09</v>
+        <v>35.090000000000003</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -15266,7 +14649,7 @@
         <v>18</v>
       </c>
       <c r="C329" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D329">
         <v>39</v>
@@ -15309,7 +14692,7 @@
         <v>19</v>
       </c>
       <c r="C330" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D330">
         <v>37</v>
@@ -15352,7 +14735,7 @@
         <v>20</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D331">
         <v>23</v>
@@ -15395,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D332">
         <v>90</v>
@@ -15438,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="C333" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D333">
         <v>74</v>
@@ -15481,7 +14864,7 @@
         <v>3</v>
       </c>
       <c r="C334" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D334">
         <v>74</v>
@@ -15524,7 +14907,7 @@
         <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D335">
         <v>65</v>
@@ -15567,7 +14950,7 @@
         <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D336">
         <v>64</v>
@@ -15610,7 +14993,7 @@
         <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D337">
         <v>63</v>
@@ -15653,7 +15036,7 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D338">
         <v>57</v>
@@ -15696,7 +15079,7 @@
         <v>8</v>
       </c>
       <c r="C339" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D339">
         <v>56</v>
@@ -15739,7 +15122,7 @@
         <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D340">
         <v>53</v>
@@ -15782,7 +15165,7 @@
         <v>10</v>
       </c>
       <c r="C341" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D341">
         <v>52</v>
@@ -15825,7 +15208,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D342">
         <v>49</v>
@@ -15868,7 +15251,7 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D343">
         <v>49</v>
@@ -15911,7 +15294,7 @@
         <v>13</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D344">
         <v>48</v>
@@ -15954,7 +15337,7 @@
         <v>14</v>
       </c>
       <c r="C345" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D345">
         <v>46</v>
@@ -15997,7 +15380,7 @@
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D346">
         <v>43</v>
@@ -16040,7 +15423,7 @@
         <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D347">
         <v>39</v>
@@ -16083,7 +15466,7 @@
         <v>17</v>
       </c>
       <c r="C348" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D348">
         <v>36</v>
@@ -16126,7 +15509,7 @@
         <v>18</v>
       </c>
       <c r="C349" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D349">
         <v>32</v>
@@ -16169,7 +15552,7 @@
         <v>19</v>
       </c>
       <c r="C350" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D350">
         <v>32</v>
@@ -16212,7 +15595,7 @@
         <v>20</v>
       </c>
       <c r="C351" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D351">
         <v>20</v>
@@ -16255,7 +15638,7 @@
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D352">
         <v>71</v>
@@ -16298,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D353">
         <v>70</v>
@@ -16341,7 +15724,7 @@
         <v>3</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D354">
         <v>68</v>
@@ -16384,7 +15767,7 @@
         <v>4</v>
       </c>
       <c r="C355" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D355">
         <v>66</v>
@@ -16427,7 +15810,7 @@
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D356">
         <v>64</v>
@@ -16470,7 +15853,7 @@
         <v>6</v>
       </c>
       <c r="C357" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D357">
         <v>59</v>
@@ -16513,7 +15896,7 @@
         <v>7</v>
       </c>
       <c r="C358" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D358">
         <v>58</v>
@@ -16556,7 +15939,7 @@
         <v>8</v>
       </c>
       <c r="C359" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D359">
         <v>54</v>
@@ -16599,7 +15982,7 @@
         <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D360">
         <v>53</v>
@@ -16642,7 +16025,7 @@
         <v>10</v>
       </c>
       <c r="C361" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D361">
         <v>53</v>
@@ -16685,7 +16068,7 @@
         <v>11</v>
       </c>
       <c r="C362" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D362">
         <v>52</v>
@@ -16728,7 +16111,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D363">
         <v>51</v>
@@ -16771,7 +16154,7 @@
         <v>13</v>
       </c>
       <c r="C364" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D364">
         <v>50</v>
@@ -16814,7 +16197,7 @@
         <v>14</v>
       </c>
       <c r="C365" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D365">
         <v>44</v>
@@ -16857,7 +16240,7 @@
         <v>15</v>
       </c>
       <c r="C366" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D366">
         <v>42</v>
@@ -16889,7 +16272,7 @@
       </c>
       <c r="M366">
         <f t="shared" si="11"/>
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -16900,7 +16283,7 @@
         <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D367">
         <v>41</v>
@@ -16943,7 +16326,7 @@
         <v>17</v>
       </c>
       <c r="C368" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D368">
         <v>41</v>
@@ -16986,7 +16369,7 @@
         <v>18</v>
       </c>
       <c r="C369" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D369">
         <v>37</v>
@@ -17029,7 +16412,7 @@
         <v>19</v>
       </c>
       <c r="C370" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D370">
         <v>31</v>
@@ -17072,7 +16455,7 @@
         <v>20</v>
       </c>
       <c r="C371" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D371">
         <v>27</v>
@@ -17115,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D372">
         <v>84</v>
@@ -17147,7 +16530,7 @@
       </c>
       <c r="M372">
         <f t="shared" si="11"/>
-        <v>73.68</v>
+        <v>73.680000000000007</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -17158,7 +16541,7 @@
         <v>2</v>
       </c>
       <c r="C373" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D373">
         <v>71</v>
@@ -17201,7 +16584,7 @@
         <v>3</v>
       </c>
       <c r="C374" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D374">
         <v>66</v>
@@ -17244,7 +16627,7 @@
         <v>4</v>
       </c>
       <c r="C375" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D375">
         <v>58</v>
@@ -17287,7 +16670,7 @@
         <v>5</v>
       </c>
       <c r="C376" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D376">
         <v>57</v>
@@ -17330,7 +16713,7 @@
         <v>6</v>
       </c>
       <c r="C377" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D377">
         <v>56</v>
@@ -17373,7 +16756,7 @@
         <v>7</v>
       </c>
       <c r="C378" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D378">
         <v>54</v>
@@ -17416,7 +16799,7 @@
         <v>8</v>
       </c>
       <c r="C379" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D379">
         <v>53</v>
@@ -17459,7 +16842,7 @@
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D380">
         <v>53</v>
@@ -17502,7 +16885,7 @@
         <v>10</v>
       </c>
       <c r="C381" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D381">
         <v>50</v>
@@ -17545,7 +16928,7 @@
         <v>11</v>
       </c>
       <c r="C382" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D382">
         <v>50</v>
@@ -17588,7 +16971,7 @@
         <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D383">
         <v>48</v>
@@ -17631,7 +17014,7 @@
         <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D384">
         <v>48</v>
@@ -17674,7 +17057,7 @@
         <v>14</v>
       </c>
       <c r="C385" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D385">
         <v>47</v>
@@ -17717,7 +17100,7 @@
         <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D386">
         <v>47</v>
@@ -17760,7 +17143,7 @@
         <v>16</v>
       </c>
       <c r="C387" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D387">
         <v>46</v>
@@ -17803,7 +17186,7 @@
         <v>17</v>
       </c>
       <c r="C388" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D388">
         <v>43</v>
@@ -17846,7 +17229,7 @@
         <v>18</v>
       </c>
       <c r="C389" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D389">
         <v>43</v>
@@ -17889,7 +17272,7 @@
         <v>19</v>
       </c>
       <c r="C390" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D390">
         <v>38</v>
@@ -17932,7 +17315,7 @@
         <v>20</v>
       </c>
       <c r="C391" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D391">
         <v>15</v>
@@ -17975,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="C392" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D392">
         <v>81</v>
@@ -18018,7 +17401,7 @@
         <v>2</v>
       </c>
       <c r="C393" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D393">
         <v>73</v>
@@ -18050,7 +17433,7 @@
       </c>
       <c r="M393">
         <f t="shared" si="13"/>
-        <v>64.04</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="394" spans="1:13">
@@ -18061,7 +17444,7 @@
         <v>3</v>
       </c>
       <c r="C394" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D394">
         <v>70</v>
@@ -18104,7 +17487,7 @@
         <v>4</v>
       </c>
       <c r="C395" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D395">
         <v>65</v>
@@ -18147,7 +17530,7 @@
         <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D396">
         <v>62</v>
@@ -18190,7 +17573,7 @@
         <v>6</v>
       </c>
       <c r="C397" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D397">
         <v>58</v>
@@ -18233,7 +17616,7 @@
         <v>7</v>
       </c>
       <c r="C398" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D398">
         <v>58</v>
@@ -18276,7 +17659,7 @@
         <v>8</v>
       </c>
       <c r="C399" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D399">
         <v>55</v>
@@ -18319,7 +17702,7 @@
         <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D400">
         <v>54</v>
@@ -18362,7 +17745,7 @@
         <v>10</v>
       </c>
       <c r="C401" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D401">
         <v>53</v>
@@ -18405,7 +17788,7 @@
         <v>11</v>
       </c>
       <c r="C402" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D402">
         <v>53</v>
@@ -18448,7 +17831,7 @@
         <v>12</v>
       </c>
       <c r="C403" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D403">
         <v>47</v>
@@ -18491,7 +17874,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D404">
         <v>46</v>
@@ -18534,7 +17917,7 @@
         <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D405">
         <v>44</v>
@@ -18577,7 +17960,7 @@
         <v>15</v>
       </c>
       <c r="C406" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D406">
         <v>42</v>
@@ -18609,7 +17992,7 @@
       </c>
       <c r="M406">
         <f t="shared" si="13"/>
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="407" spans="1:13">
@@ -18620,7 +18003,7 @@
         <v>16</v>
       </c>
       <c r="C407" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D407">
         <v>41</v>
@@ -18663,7 +18046,7 @@
         <v>17</v>
       </c>
       <c r="C408" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D408">
         <v>37</v>
@@ -18706,7 +18089,7 @@
         <v>18</v>
       </c>
       <c r="C409" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D409">
         <v>36</v>
@@ -18749,7 +18132,7 @@
         <v>19</v>
       </c>
       <c r="C410" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D410">
         <v>35</v>
@@ -18792,7 +18175,7 @@
         <v>20</v>
       </c>
       <c r="C411" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D411">
         <v>22</v>
@@ -18829,6 +18212,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>